--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="11835" tabRatio="351"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23790" windowHeight="7275" tabRatio="351"/>
   </bookViews>
   <sheets>
     <sheet name="Item description" sheetId="9" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="657">
   <si>
     <t>text</t>
   </si>
@@ -2098,6 +2098,12 @@
   </si>
   <si>
     <t>Keen, EM, Wray, J, Meuter, H, Thompson, K-L, and Picard, CR. (Accepted 2016) "Whale Wave": Shifting strategies structure complex use of critical fjord habitat by fin whales. Marine Ecology Progress Series.</t>
+  </si>
+  <si>
+    <t>This archive file contains all the data for this collection. After extraction, in each folder you will find PDF documents that detail the data processing and analysis used in their respective topics. These PDFs guide the user through the location and content of the data and R scripts within the subfolders.</t>
+  </si>
+  <si>
+    <t>List of necessary R packages/versions</t>
   </si>
 </sst>
 </file>
@@ -3166,10 +3172,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,11 +3190,11 @@
     <col min="16" max="17" width="45.5703125" style="3" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.140625" style="3" customWidth="1"/>
-    <col min="20" max="23" width="39.140625" style="3" customWidth="1"/>
-    <col min="24" max="25" width="42.85546875" style="3" customWidth="1"/>
+    <col min="20" max="24" width="39.140625" style="3" customWidth="1"/>
+    <col min="25" max="26" width="42.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3256,22 +3262,28 @@
         <v>627</v>
       </c>
       <c r="W1" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>631</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>485</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>634</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>651</v>
       </c>
@@ -3317,17 +3329,17 @@
       <c r="V2" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3340,17 +3352,20 @@
       <c r="D3" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>634</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>358</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U3" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>631</v>
       </c>
@@ -3362,9 +3377,6 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>358</v>
@@ -3411,7 +3423,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>X1:Y1</xm:sqref>
+          <xm:sqref>Y1:Z1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
@@ -3423,7 +3435,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:W1</xm:sqref>
+          <xm:sqref>T1:X1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="658">
   <si>
     <t>text</t>
   </si>
@@ -2100,10 +2100,13 @@
     <t>Keen, EM, Wray, J, Meuter, H, Thompson, K-L, and Picard, CR. (Accepted 2016) "Whale Wave": Shifting strategies structure complex use of critical fjord habitat by fin whales. Marine Ecology Progress Series.</t>
   </si>
   <si>
-    <t>This archive file contains all the data for this collection. After extraction, in each folder you will find PDF documents that detail the data processing and analysis used in their respective topics. These PDFs guide the user through the location and content of the data and R scripts within the subfolders.</t>
-  </si>
-  <si>
     <t>List of necessary R packages/versions</t>
+  </si>
+  <si>
+    <t>This archive file contains all the data in the collection.</t>
+  </si>
+  <si>
+    <t>After extraction, in each folder you will find PDF documents that detail the data processing and analysis used in their respective topics. These PDFs guide the user through the location and content of the data and R scripts within the subfolders.</t>
   </si>
 </sst>
 </file>
@@ -2826,42 +2829,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC0D494"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3D69A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFACD575"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -3174,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,7 +3307,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3358,11 +3326,14 @@
       <c r="G3" s="3" t="s">
         <v>635</v>
       </c>
+      <c r="T3" s="3" t="s">
+        <v>656</v>
+      </c>
       <c r="U3" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -2100,13 +2100,18 @@
     <t>Keen, EM, Wray, J, Meuter, H, Thompson, K-L, and Picard, CR. (Accepted 2016) "Whale Wave": Shifting strategies structure complex use of critical fjord habitat by fin whales. Marine Ecology Progress Series.</t>
   </si>
   <si>
-    <t>List of necessary R packages/versions</t>
-  </si>
-  <si>
     <t>This archive file contains all the data in the collection.</t>
   </si>
   <si>
     <t>After extraction, in each folder you will find PDF documents that detail the data processing and analysis used in their respective topics. These PDFs guide the user through the location and content of the data and R scripts within the subfolders.</t>
+  </si>
+  <si>
+    <t>This data was produced with R version 3.1.2, and the following R packages and versions:
+PBSMapping v 2.67.60
+The 'bangarang' package - &lt;a href="https://github.com/ericmkeen/bangarang"&gt;GitHub link&lt;/a&gt;
+swfscMisc, v. 1.0.3
+MASS v.7.3-35
+mgcv, v1.8-3</t>
   </si>
 </sst>
 </file>
@@ -3142,8 +3147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3312,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3327,13 +3332,13 @@
         <v>635</v>
       </c>
       <c r="T3" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>657</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -26,7 +26,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="651">
   <si>
     <t>text</t>
   </si>
@@ -2059,30 +2059,6 @@
   </si>
   <si>
     <t>Using 10 years of whale surveys and a year of oceanographic, ecosystem-level surveying, we investigated the mechanisms behind a curious pattern in humpback whale (Megapter novaeangliae) distribution, in which whales use a British Columbia fjord system in a kind of wave, propagating from offshore to inland channels as summer turned to fall.</t>
-  </si>
-  <si>
-    <t>Humpback whale | Whale wave | Habitat use | Habitat model | Gitga'at First Nation</t>
-  </si>
-  <si>
-    <t>Keen, Eric M.</t>
-  </si>
-  <si>
-    <t>Keen, Eric M. | Wray, Janie | Meuter, Hermann</t>
-  </si>
-  <si>
-    <t>Wray, Janie | Meuter, Hermann</t>
-  </si>
-  <si>
-    <t>Keen, Eric M. | Thompson, Kim-Ly</t>
-  </si>
-  <si>
-    <t>Thompson, Kim-Ly</t>
-  </si>
-  <si>
-    <t>Barlow, Jay P</t>
-  </si>
-  <si>
-    <t>Keen, Eric M. | Barlow, Jay P</t>
   </si>
   <si>
     <t>Keen, Eric M. | Wray, Janie | Meuter, Hermann | Thompson, Kim-Ly | Barlow, Jay P</t>
@@ -2112,6 +2088,9 @@
 swfscMisc, v. 1.0.3
 MASS v.7.3-35
 mgcv, v1.8-3</t>
+  </si>
+  <si>
+    <t>Humpback whale | Megaptera novaeangliae | Habitat use | Habitat model | Gitga'at First Nation</t>
   </si>
 </sst>
 </file>
@@ -3145,10 +3124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,15 +3138,15 @@
     <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
     <col min="7" max="7" width="51.5703125" style="3" customWidth="1"/>
-    <col min="8" max="15" width="45.140625" style="3" customWidth="1"/>
-    <col min="16" max="17" width="45.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="3" customWidth="1"/>
-    <col min="20" max="24" width="39.140625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="42.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="45.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="3" customWidth="1"/>
+    <col min="13" max="17" width="39.140625" style="3" customWidth="1"/>
+    <col min="18" max="19" width="42.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3193,61 +3172,40 @@
         <v>45</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>25</v>
+        <v>489</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>284</v>
+        <v>7</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>285</v>
+        <v>4</v>
       </c>
       <c r="N1" s="16" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="O1" s="16" t="s">
-        <v>314</v>
+        <v>627</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
       <c r="Q1" s="16" t="s">
-        <v>450</v>
+        <v>628</v>
       </c>
       <c r="R1" s="16" t="s">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z1" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>631</v>
       </c>
@@ -3258,61 +3216,40 @@
         <v>634</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3331,17 +3268,17 @@
       <c r="G3" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>631</v>
       </c>
@@ -3393,25 +3330,25 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$D$1:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P1:Q1</xm:sqref>
+          <xm:sqref>I1:J1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>Y1:Z1</xm:sqref>
+          <xm:sqref>R1:S1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
+          <x14:formula1>
+            <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:Q1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$B$1:$B$233</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:O1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
-          <x14:formula1>
-            <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>T1:X1</xm:sqref>
+          <xm:sqref>H1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="652">
   <si>
     <t>text</t>
   </si>
@@ -2091,6 +2091,9 @@
   </si>
   <si>
     <t>Humpback whale | Megaptera novaeangliae | Habitat use | Habitat model | Gitga'at First Nation</t>
+  </si>
+  <si>
+    <t>Keen, Eric M; Wray, Janie; Meuter, Hermann; Thompson, Kim-Ly; Barlow, Jay P; Picard, Chris R (2017): Data from: "Whale Wave": shifting strategies structure the complex use of critical fjord habitats by humpbacks. UC San Diego Library Digital Collections.</t>
   </si>
 </sst>
 </file>
@@ -3124,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,11 +3145,11 @@
     <col min="9" max="10" width="45.5703125" style="3" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="3" customWidth="1"/>
-    <col min="13" max="17" width="39.140625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="42.85546875" style="3" customWidth="1"/>
+    <col min="13" max="18" width="39.140625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="42.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3187,25 +3190,28 @@
         <v>4</v>
       </c>
       <c r="N1" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>631</v>
       </c>
@@ -3236,20 +3242,23 @@
       <c r="M2" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3271,14 +3280,14 @@
       <c r="M3" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>631</v>
       </c>
@@ -3336,13 +3345,13 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>R1:S1</xm:sqref>
+          <xm:sqref>S1:T1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>
             <xm:f>'Select-a-header values'!$E$1:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>M1:Q1</xm:sqref>
+          <xm:sqref>M1:R1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="653">
   <si>
     <t>text</t>
   </si>
@@ -2090,10 +2090,13 @@
 mgcv, v1.8-3</t>
   </si>
   <si>
-    <t>Humpback whale | Megaptera novaeangliae | Habitat use | Habitat model | Gitga'at First Nation</t>
-  </si>
-  <si>
     <t>Keen, Eric M; Wray, Janie; Meuter, Hermann; Thompson, Kim-Ly; Barlow, Jay P; Picard, Chris R (2017): Data from: "Whale Wave": shifting strategies structure the complex use of critical fjord habitats by humpbacks. UC San Diego Library Digital Collections.</t>
+  </si>
+  <si>
+    <t>Humpback whale | Habitat use | Habitat model | Gitga'at First Nation</t>
+  </si>
+  <si>
+    <t>Megaptera novaeangliae</t>
   </si>
 </sst>
 </file>
@@ -3127,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,10 +3149,10 @@
     <col min="11" max="11" width="14.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="3" customWidth="1"/>
     <col min="13" max="18" width="39.140625" style="3" customWidth="1"/>
-    <col min="19" max="20" width="42.85546875" style="3" customWidth="1"/>
+    <col min="19" max="21" width="42.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>338</v>
       </c>
@@ -3208,10 +3211,13 @@
         <v>460</v>
       </c>
       <c r="T1" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>631</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>641</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>645</v>
@@ -3252,13 +3258,16 @@
         <v>646</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>631</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>631</v>
       </c>
@@ -3345,7 +3354,7 @@
           <x14:formula1>
             <xm:f>'Select-a-header values'!$G$1:$G$17</xm:f>
           </x14:formula1>
-          <xm:sqref>S1:T1</xm:sqref>
+          <xm:sqref>S1:U1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid header" error="Please select a header from the drop-down list" prompt="Please select a header from the drop-down list">
           <x14:formula1>

--- a/whale-wave/OLR/standard_input_whale_wave.xlsx
+++ b/whale-wave/OLR/standard_input_whale_wave.xlsx
@@ -2073,9 +2073,6 @@
     <t>2005-2014 fieldwork was funded in part by the Save Ours Seas Foundation and Willow Gove Foundation with special thanks to Andy Wright, the Zumwalt family, Julie Walters and Sam Rose. 2015 fieldwork was funded by the Gitga’at First Nation Guardian Watchmen, Canadian Department of Fisheries and Oceans, NSF Graduate Research Fellowship program (DGE-114086), and private donations from the Watson, Ayres, Cunningham, Barlow and Keen families.</t>
   </si>
   <si>
-    <t>Keen, EM, Wray, J, Meuter, H, Thompson, K-L, and Picard, CR. (Accepted 2016) "Whale Wave": Shifting strategies structure complex use of critical fjord habitat by fin whales. Marine Ecology Progress Series.</t>
-  </si>
-  <si>
     <t>This archive file contains all the data in the collection.</t>
   </si>
   <si>
@@ -2097,6 +2094,9 @@
   </si>
   <si>
     <t>Megaptera novaeangliae</t>
+  </si>
+  <si>
+    <t>Keen, EM, Wray, J, Meuter, H, Thompson, K-L, Barlow, JP, and Picard, CR. (Accepted 2016) "Whale Wave": Shifting strategies structure complex use of critical fjord habitat by fin whales. Marine Ecology Progress Series.</t>
   </si>
 </sst>
 </file>
@@ -3132,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,19 +3249,19 @@
         <v>641</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>645</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>652</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>644</v>
@@ -3287,13 +3287,13 @@
         <v>635</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
